--- a/data/summary_22071310.xlsx
+++ b/data/summary_22071310.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,486 +406,543 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>17.64254143646409</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>988.4889502762431</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.3773793388429752</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.421997520661157</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.202535104728515</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.42045667456061e-005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17.9767955801105</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>9.260220994475139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>17.48618784530387</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>988.5281767955801</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3929611570247934</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4340586776859504</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.277268334499754</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-9.54816975526921e-005</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>17.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9.218232044198896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>17.525</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>988.625</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8.708206022992791e-017</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>17.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.800000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>17.63093922651934</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>988.6453038674033</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3928950413223141</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3992421487603306</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.349836192076419</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.0001419468701043185</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>17.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.876243093922652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>17.88563535911602</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>988.7988950276243</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.5175776859504132</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.5546793388429752</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3.008558785019694</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.359367858768712e-017</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.318232044198895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>18.40994475138121</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>988.9563535911602</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3190785123966942</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2969181818181818</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.051255391450278</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.357139022978595e-017</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>17.52099447513812</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.89060773480663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>20.27569060773481</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>989.0546961325968</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2203793388429752</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2176082644628099</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.310405466543565</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001068806323461947</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>17.80718232044199</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6.3353591160221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>22.29337016574586</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>989.0508287292818</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3152561983471074</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3130214876033058</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.024472556538885</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.000170145488757348</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18.56574585635359</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.021546961325967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>23.36243093922652</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>989.114364640884</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.4215586776859504</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4099619834710744</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.593670540046376</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.217086924011606e-005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.1828729281768</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.933701657458564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>24.75469613259669</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>989.160773480663</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2881462809917356</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2948314049586777</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.72110931538553</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001395502212508616</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>19.75745856353591</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8.560220994475138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>26.23149171270718</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>989.1193370165746</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3883801652892562</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3331603305785124</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.64017106180718</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3.231299674265174e-017</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>20.34530386740332</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.723756906077348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>26.41436464088398</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>989.1005524861879</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3635768595041322</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3875107438016529</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.139331150218195</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.0001393804876290132</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20.70441988950276</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.621546961325967</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>26.37403314917127</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>989.179005524862</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.5006214876033058</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.507199173553719</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.995704696624306</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.0001266748323617788</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>20.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5.801657458563536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>25.99502762430939</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>989.3259668508287</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.2928735537190083</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.2901801652892562</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.785683142354319</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7.272237985580952e-006</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>21.0171270718232</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>26.36740331491713</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>989.4712707182321</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.310596694214876</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.2819719008264463</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.069119741683343</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-1.964048236430846e-005</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>21.1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5.622651933701658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>26.55635359116022</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>989.518232044199</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.2220661157024793</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1982429752066116</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.497454060162378</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-1.753661133573903e-005</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>21.31657458563536</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.188397790055249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>27.11049723756906</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>989.5414364640884</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.4173851239669422</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.3854743801652892</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.633561533932519</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0001141015571833853</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>21.9</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>7.126519337016575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>27.04917127071823</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>989.5917127071823</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2199066115702479</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.02740330578512397</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.779887588109649</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.0001343890387905345</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21.9</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.433149171270718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>27.56519337016575</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>989.660773480663</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3737206611570248</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.4092099173553719</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.132346968847645</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.0001084427698646333</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>22.1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7.759668508287293</v>
       </c>
     </row>
